--- a/Sergio.xlsx
+++ b/Sergio.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumnos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,12 +121,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,6 +189,7 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -212,7 +207,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,7 +733,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -760,9 +753,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="es-MX"/>
@@ -1140,9 +1133,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
@@ -1199,9 +1192,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-MX"/>
@@ -1250,10 +1243,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="es-MX"/>
     </a:p>
@@ -1281,7 +1271,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2412,6 +2401,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4758,16 +4748,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4800,15 +4790,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>689610</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5177,969 +5167,969 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C74"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="1">
         <v>-360</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="1">
         <f>RADIANS(A2)</f>
         <v>-6.2831853071795862</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="1">
         <f>SIN(B2)</f>
         <v>2.45029690981724E-16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="1">
         <v>-350</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="1">
         <f t="shared" ref="B3:B66" si="0">RADIANS(A3)</f>
         <v>-6.1086523819801535</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C66" si="1">SIN(B3)</f>
         <v>0.17364817766693039</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="1">
         <v>-340</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>-5.9341194567807207</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="1">
         <f t="shared" si="1"/>
         <v>0.3420201433256686</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="1">
         <v>-330</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>-5.7595865315812871</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="1">
         <f t="shared" si="1"/>
         <v>0.50000000000000044</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="1">
         <v>-320</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>-5.5850536063818543</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0.64278760968653958</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="1">
         <v>-310</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>-5.4105206811824216</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0.76604444311897812</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="1">
         <v>-300</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>-5.2359877559829888</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="1">
         <v>-290</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>-5.0614548307835561</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0.93969262078590832</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="1">
         <v>-280</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>-4.8869219055841224</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0.98480775301220813</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="1">
         <v>-270</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>-4.7123889803846897</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="1">
         <v>-260</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>-4.5378560551852569</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="1">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="1">
         <v>-250</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>-4.3633231299858242</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="1">
         <f t="shared" si="1"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="1">
         <v>-240</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>-4.1887902047863905</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="1">
         <f t="shared" si="1"/>
         <v>0.86602540378443837</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="1">
         <v>-230</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>-4.0142572795869578</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="1">
         <f t="shared" si="1"/>
         <v>0.7660444431189779</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="1">
         <v>-220</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>-3.839724354387525</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="1">
         <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="1">
         <v>-210</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>-3.6651914291880923</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="1">
         <f t="shared" si="1"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="1">
         <v>-200</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>-3.4906585039886591</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="1">
         <f t="shared" si="1"/>
         <v>0.34202014332566866</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="1">
         <v>-190</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>-3.3161255787892263</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="1">
         <f t="shared" si="1"/>
         <v>0.17364817766693047</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="1">
         <v>-180</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>-3.1415926535897931</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="1">
         <f t="shared" si="1"/>
         <v>-1.22514845490862E-16</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="1">
         <v>-170</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>-2.9670597283903604</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="1">
         <f t="shared" si="1"/>
         <v>-0.17364817766693028</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
+      <c r="A22" s="1">
         <v>-160</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>-2.7925268031909272</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="1">
         <f t="shared" si="1"/>
         <v>-0.34202014332566888</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
+      <c r="A23" s="1">
         <v>-150</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>-2.6179938779914944</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="1">
         <f t="shared" si="1"/>
         <v>-0.49999999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="1">
         <v>-140</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>-2.4434609527920612</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="1">
         <f t="shared" si="1"/>
         <v>-0.64278760968653947</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
+      <c r="A25" s="1">
         <v>-130</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>-2.2689280275926285</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="1">
         <f t="shared" si="1"/>
         <v>-0.76604444311897801</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14">
+      <c r="A26" s="1">
         <v>-120</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>-2.0943951023931953</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="1">
         <f t="shared" si="1"/>
         <v>-0.86602540378443871</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14">
+      <c r="A27" s="1">
         <v>-110</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>-1.9198621771937625</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="1">
         <f t="shared" si="1"/>
         <v>-0.93969262078590843</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="1">
         <v>-100</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>-1.7453292519943295</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="1">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14">
+      <c r="A29" s="1">
         <v>-90</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="1">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14">
+      <c r="A30" s="1">
         <v>-80</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>-1.3962634015954636</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="1">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14">
+      <c r="A31" s="1">
         <v>-70</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>-1.2217304763960306</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="1">
         <f t="shared" si="1"/>
         <v>-0.93969262078590832</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
+      <c r="A32" s="1">
         <v>-60</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>-1.0471975511965976</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="1">
         <f t="shared" si="1"/>
         <v>-0.8660254037844386</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
+      <c r="A33" s="1">
         <v>-50</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>-0.87266462599716477</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="1">
         <f t="shared" si="1"/>
         <v>-0.76604444311897801</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
+      <c r="A34" s="1">
         <v>-40</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>-0.69813170079773179</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="1">
         <f t="shared" si="1"/>
         <v>-0.64278760968653925</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
+      <c r="A35" s="1">
         <v>-30</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="1">
         <f t="shared" si="1"/>
         <v>-0.49999999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14">
+      <c r="A36" s="1">
         <v>-20</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>-0.3490658503988659</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="1">
         <f t="shared" si="1"/>
         <v>-0.34202014332566871</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37" s="1">
         <v>-10</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>-0.17453292519943295</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="1">
         <f t="shared" si="1"/>
         <v>-0.17364817766693033</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+      <c r="A38" s="1">
         <v>0</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14">
+      <c r="A39" s="1">
         <v>10</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>0.17453292519943295</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="1">
         <f t="shared" si="1"/>
         <v>0.17364817766693033</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14">
+      <c r="A40" s="1">
         <v>20</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="1">
         <f t="shared" si="1"/>
         <v>0.34202014332566871</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
+      <c r="A41" s="1">
         <v>30</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="1">
         <f t="shared" si="1"/>
         <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="1">
         <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14">
+      <c r="A43" s="1">
         <v>50</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="1">
         <f t="shared" si="1"/>
         <v>0.76604444311897801</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
+      <c r="A44" s="1">
         <v>60</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="1">
         <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
+      <c r="A45" s="1">
         <v>70</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>1.2217304763960306</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="1">
         <f t="shared" si="1"/>
         <v>0.93969262078590832</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
+      <c r="A46" s="1">
         <v>80</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>1.3962634015954636</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="1">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
+      <c r="A47" s="1">
         <v>90</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
+      <c r="A48" s="1">
         <v>100</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>1.7453292519943295</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="1">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
+      <c r="A49" s="1">
         <v>110</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>1.9198621771937625</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="1">
         <f t="shared" si="1"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
+      <c r="A50" s="1">
         <v>120</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>2.0943951023931953</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="1">
         <f t="shared" si="1"/>
         <v>0.86602540378443871</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
+      <c r="A51" s="1">
         <v>130</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>2.2689280275926285</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="1">
         <f t="shared" si="1"/>
         <v>0.76604444311897801</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
+      <c r="A52" s="1">
         <v>140</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>2.4434609527920612</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="1">
         <f t="shared" si="1"/>
         <v>0.64278760968653947</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
+      <c r="A53" s="1">
         <v>150</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>2.6179938779914944</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="1">
         <f t="shared" si="1"/>
         <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14">
+      <c r="A54" s="1">
         <v>160</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>2.7925268031909272</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="1">
         <f t="shared" si="1"/>
         <v>0.34202014332566888</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
+      <c r="A55" s="1">
         <v>170</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>2.9670597283903604</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="1">
         <f t="shared" si="1"/>
         <v>0.17364817766693028</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
+      <c r="A56" s="1">
         <v>180</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="1">
         <f t="shared" si="1"/>
         <v>1.22514845490862E-16</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14">
+      <c r="A57" s="1">
         <v>190</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>3.3161255787892263</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="1">
         <f t="shared" si="1"/>
         <v>-0.17364817766693047</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
+      <c r="A58" s="1">
         <v>200</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>3.4906585039886591</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="1">
         <f t="shared" si="1"/>
         <v>-0.34202014332566866</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14">
+      <c r="A59" s="1">
         <v>210</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>3.6651914291880923</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="1">
         <f t="shared" si="1"/>
         <v>-0.50000000000000011</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14">
+      <c r="A60" s="1">
         <v>220</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>3.839724354387525</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="1">
         <f t="shared" si="1"/>
         <v>-0.64278760968653925</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14">
+      <c r="A61" s="1">
         <v>230</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>4.0142572795869578</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="1">
         <f t="shared" si="1"/>
         <v>-0.7660444431189779</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14">
+      <c r="A62" s="1">
         <v>240</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>4.1887902047863905</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="1">
         <f t="shared" si="1"/>
         <v>-0.86602540378443837</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14">
+      <c r="A63" s="1">
         <v>250</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>4.3633231299858242</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="1">
         <f t="shared" si="1"/>
         <v>-0.93969262078590843</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14">
+      <c r="A64" s="1">
         <v>260</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>4.5378560551852569</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="1">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14">
+      <c r="A65" s="1">
         <v>270</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>4.7123889803846897</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="1">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14">
+      <c r="A66" s="1">
         <v>280</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>4.8869219055841224</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="1">
         <f t="shared" si="1"/>
         <v>-0.98480775301220813</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14">
+      <c r="A67" s="1">
         <v>290</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="1">
         <f t="shared" ref="B67:B74" si="2">RADIANS(A67)</f>
         <v>5.0614548307835561</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="1">
         <f t="shared" ref="C67:C74" si="3">SIN(B67)</f>
         <v>-0.93969262078590832</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14">
+      <c r="A68" s="1">
         <v>300</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="1">
         <f t="shared" si="2"/>
         <v>5.2359877559829888</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="1">
         <f t="shared" si="3"/>
         <v>-0.8660254037844386</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14">
+      <c r="A69" s="1">
         <v>310</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="1">
         <f t="shared" si="2"/>
         <v>5.4105206811824216</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="1">
         <f t="shared" si="3"/>
         <v>-0.76604444311897812</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14">
+      <c r="A70" s="1">
         <v>320</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="1">
         <f t="shared" si="2"/>
         <v>5.5850536063818543</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="1">
         <f t="shared" si="3"/>
         <v>-0.64278760968653958</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14">
+      <c r="A71" s="1">
         <v>330</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="1">
         <f t="shared" si="2"/>
         <v>5.7595865315812871</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="1">
         <f t="shared" si="3"/>
         <v>-0.50000000000000044</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14">
+      <c r="A72" s="1">
         <v>340</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="1">
         <f t="shared" si="2"/>
         <v>5.9341194567807207</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="1">
         <f t="shared" si="3"/>
         <v>-0.3420201433256686</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14">
+      <c r="A73" s="1">
         <v>350</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="1">
         <f t="shared" si="2"/>
         <v>6.1086523819801535</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="1">
         <f t="shared" si="3"/>
         <v>-0.17364817766693039</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
+      <c r="A74" s="1">
         <v>360</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="1">
         <f t="shared" si="2"/>
         <v>6.2831853071795862</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="1">
         <f t="shared" si="3"/>
         <v>-2.45029690981724E-16</v>
       </c>
@@ -6162,837 +6152,837 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <f>SQRT(A2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <f t="shared" ref="B3:B66" si="0">SQRT(A3)</f>
         <v>1.4142135623730951</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <f t="shared" si="0"/>
         <v>2.4494897427831779</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3.1622776601683795</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3.4641016151377544</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>14</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>3.7416573867739413</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>16</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>18</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>4.2426406871192848</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>4.4721359549995796</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>4.6904157598234297</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>24</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>4.8989794855663558</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>26</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>5.0990195135927845</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>28</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>5.2915026221291814</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>30</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>5.4772255750516612</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>32</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>5.6568542494923806</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>34</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>5.8309518948453007</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>36</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>38</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>6.164414002968976</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>40</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>6.324555320336759</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>42</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>6.4807406984078604</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>44</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>6.6332495807107996</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>46</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>6.7823299831252681</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>48</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>6.9282032302755088</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>50</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>7.0710678118654755</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>52</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>7.2111025509279782</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>54</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>7.3484692283495345</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>56</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>7.4833147735478827</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>58</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>7.6157731058639087</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>60</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>7.745966692414834</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>62</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>7.8740078740118111</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>64</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>66</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>8.1240384046359608</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>68</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>8.2462112512353212</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>70</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>8.3666002653407556</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>72</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <f t="shared" si="0"/>
         <v>8.4852813742385695</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>74</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="6">
         <f t="shared" si="0"/>
         <v>8.6023252670426267</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>76</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="6">
         <f t="shared" si="0"/>
         <v>8.717797887081348</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>78</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>8.8317608663278477</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>80</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>8.9442719099991592</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>82</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="6">
         <f t="shared" si="0"/>
         <v>9.0553851381374173</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>84</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <f t="shared" si="0"/>
         <v>9.1651513899116797</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>86</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="6">
         <f t="shared" si="0"/>
         <v>9.2736184954957039</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>88</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="6">
         <f t="shared" si="0"/>
         <v>9.3808315196468595</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>90</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="6">
         <f t="shared" si="0"/>
         <v>9.4868329805051381</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>92</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="6">
         <f t="shared" si="0"/>
         <v>9.5916630466254382</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>94</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="6">
         <f t="shared" si="0"/>
         <v>9.6953597148326587</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>96</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="6">
         <f t="shared" si="0"/>
         <v>9.7979589711327115</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>98</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="6">
         <f t="shared" si="0"/>
         <v>9.8994949366116654</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>100</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>102</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="6">
         <f t="shared" si="0"/>
         <v>10.099504938362077</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>104</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="6">
         <f t="shared" si="0"/>
         <v>10.198039027185569</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>106</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="6">
         <f t="shared" si="0"/>
         <v>10.295630140987001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>108</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="6">
         <f t="shared" si="0"/>
         <v>10.392304845413264</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>110</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="6">
         <f t="shared" si="0"/>
         <v>10.488088481701515</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>112</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="6">
         <f t="shared" si="0"/>
         <v>10.583005244258363</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>114</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="6">
         <f t="shared" si="0"/>
         <v>10.677078252031311</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>116</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="6">
         <f t="shared" si="0"/>
         <v>10.770329614269007</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>118</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="6">
         <f t="shared" si="0"/>
         <v>10.862780491200215</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>120</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="6">
         <f t="shared" si="0"/>
         <v>10.954451150103322</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>122</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="6">
         <f t="shared" si="0"/>
         <v>11.045361017187261</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>124</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="6">
         <f t="shared" si="0"/>
         <v>11.135528725660043</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>126</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="6">
         <f t="shared" si="0"/>
         <v>11.224972160321824</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>128</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="6">
         <f t="shared" si="0"/>
         <v>11.313708498984761</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>130</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="6">
         <f t="shared" ref="B67:B93" si="1">SQRT(A67)</f>
         <v>11.401754250991379</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>132</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="6">
         <f t="shared" si="1"/>
         <v>11.489125293076057</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>134</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="6">
         <f t="shared" si="1"/>
         <v>11.575836902790225</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>136</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="6">
         <f t="shared" si="1"/>
         <v>11.661903789690601</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>138</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="6">
         <f t="shared" si="1"/>
         <v>11.74734012447073</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>140</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="6">
         <f t="shared" si="1"/>
         <v>11.832159566199232</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>142</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="6">
         <f t="shared" si="1"/>
         <v>11.916375287812984</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>144</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>146</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="6">
         <f t="shared" si="1"/>
         <v>12.083045973594572</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>148</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="6">
         <f t="shared" si="1"/>
         <v>12.165525060596439</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>150</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="6">
         <f t="shared" si="1"/>
         <v>12.24744871391589</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>152</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="6">
         <f t="shared" si="1"/>
         <v>12.328828005937952</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>154</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="6">
         <f t="shared" si="1"/>
         <v>12.409673645990857</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>156</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="6">
         <f t="shared" si="1"/>
         <v>12.489995996796797</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>158</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="6">
         <f t="shared" si="1"/>
         <v>12.569805089976535</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>160</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="6">
         <f t="shared" si="1"/>
         <v>12.649110640673518</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>162</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="6">
         <f t="shared" si="1"/>
         <v>12.727922061357855</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>164</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="6">
         <f t="shared" si="1"/>
         <v>12.806248474865697</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>166</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="6">
         <f t="shared" si="1"/>
         <v>12.884098726725126</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>168</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="6">
         <f t="shared" si="1"/>
         <v>12.961481396815721</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>170</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="6">
         <f t="shared" si="1"/>
         <v>13.038404810405298</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>172</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="6">
         <f t="shared" si="1"/>
         <v>13.114877048604001</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>174</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="6">
         <f t="shared" si="1"/>
         <v>13.19090595827292</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>176</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="6">
         <f t="shared" si="1"/>
         <v>13.266499161421599</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>178</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="6">
         <f t="shared" si="1"/>
         <v>13.341664064126334</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>180</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="6">
         <f t="shared" si="1"/>
         <v>13.416407864998739</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>182</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="6">
         <f t="shared" si="1"/>
         <v>13.490737563232042</v>
       </c>
@@ -7007,7 +6997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -7017,961 +7007,961 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>-360</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <f>RADIANS(A2)</f>
         <v>-6.2831853071795862</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <f>COS(B2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>-350</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B66" si="0">RADIANS(A3)</f>
         <v>-6.1086523819801535</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C66" si="1">COS(B3)</f>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>-340</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
         <v>-5.9341194567807207</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <f t="shared" si="1"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>-330</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>-5.7595865315812871</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <f t="shared" si="1"/>
         <v>0.86602540378443837</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>-320</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>-5.5850536063818543</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>0.76604444311897779</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>-310</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>-5.4105206811824216</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>-300</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>-5.2359877559829888</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <f t="shared" si="1"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>-290</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>-5.0614548307835561</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <f t="shared" si="1"/>
         <v>0.34202014332566899</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>-280</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>-4.8869219055841224</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <f t="shared" si="1"/>
         <v>0.17364817766692997</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>-270</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>-4.7123889803846897</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <f t="shared" si="1"/>
         <v>-1.83772268236293E-16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>-260</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>-4.5378560551852569</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <f t="shared" si="1"/>
         <v>-0.17364817766693033</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>-250</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>-4.3633231299858242</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <f t="shared" si="1"/>
         <v>-0.34202014332566855</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>-240</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>-4.1887902047863905</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <f t="shared" si="1"/>
         <v>-0.50000000000000044</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>-230</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>-4.0142572795869578</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <f t="shared" si="1"/>
         <v>-0.64278760968653947</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>-220</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>-3.839724354387525</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <f t="shared" si="1"/>
         <v>-0.76604444311897801</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>-210</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>-3.6651914291880923</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <f t="shared" si="1"/>
         <v>-0.8660254037844386</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>-200</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>-3.4906585039886591</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <f t="shared" si="1"/>
         <v>-0.93969262078590843</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>-190</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>-3.3161255787892263</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>-180</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>-3.1415926535897931</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>-170</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>-2.9670597283903604</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>-160</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>-2.7925268031909272</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="8">
         <f t="shared" si="1"/>
         <v>-0.93969262078590832</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>-150</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>-2.6179938779914944</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <f t="shared" si="1"/>
         <v>-0.86602540378443871</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>-140</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>-2.4434609527920612</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <f t="shared" si="1"/>
         <v>-0.7660444431189779</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>-130</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>-2.2689280275926285</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <f t="shared" si="1"/>
         <v>-0.64278760968653936</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>-120</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>-2.0943951023931953</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <f t="shared" si="1"/>
         <v>-0.49999999999999978</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>-110</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>-1.9198621771937625</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <f t="shared" si="1"/>
         <v>-0.34202014332566871</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>-100</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>-1.7453292519943295</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <f t="shared" si="1"/>
         <v>-0.1736481776669303</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>-90</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <f t="shared" si="1"/>
         <v>6.1257422745431001E-17</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>-80</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>-1.3962634015954636</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <f t="shared" si="1"/>
         <v>0.17364817766693041</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>-70</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>-1.2217304763960306</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <f t="shared" si="1"/>
         <v>0.34202014332566882</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>-60</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>-1.0471975511965976</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <f t="shared" si="1"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>-50</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>-0.87266462599716477</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <f t="shared" si="1"/>
         <v>0.64278760968653936</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>-40</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>-0.69813170079773179</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <f t="shared" si="1"/>
         <v>0.76604444311897801</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>-30</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <f t="shared" si="1"/>
         <v>0.86602540378443871</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>-20</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>-0.3490658503988659</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <f t="shared" si="1"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>-10</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>-0.17453292519943295</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>0</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>10</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>0.17453292519943295</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>20</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <f t="shared" si="1"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>30</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <f t="shared" si="1"/>
         <v>0.86602540378443871</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <f t="shared" si="1"/>
         <v>0.76604444311897801</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>50</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <f t="shared" si="1"/>
         <v>0.64278760968653936</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>60</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <f t="shared" si="1"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>70</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>1.2217304763960306</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <f t="shared" si="1"/>
         <v>0.34202014332566882</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>80</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>1.3962634015954636</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <f t="shared" si="1"/>
         <v>0.17364817766693041</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>90</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <f t="shared" si="1"/>
         <v>6.1257422745431001E-17</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>100</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>1.7453292519943295</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <f t="shared" si="1"/>
         <v>-0.1736481776669303</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>110</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>1.9198621771937625</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <f t="shared" si="1"/>
         <v>-0.34202014332566871</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>120</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>2.0943951023931953</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="8">
         <f t="shared" si="1"/>
         <v>-0.49999999999999978</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>130</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>2.2689280275926285</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="8">
         <f t="shared" si="1"/>
         <v>-0.64278760968653936</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>140</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>2.4434609527920612</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="8">
         <f t="shared" si="1"/>
         <v>-0.7660444431189779</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>150</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>2.6179938779914944</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="8">
         <f t="shared" si="1"/>
         <v>-0.86602540378443871</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>160</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <f t="shared" si="0"/>
         <v>2.7925268031909272</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <f t="shared" si="1"/>
         <v>-0.93969262078590832</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>170</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <f t="shared" si="0"/>
         <v>2.9670597283903604</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="8">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>180</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <f t="shared" si="0"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>190</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <f t="shared" si="0"/>
         <v>3.3161255787892263</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="8">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>200</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <f t="shared" si="0"/>
         <v>3.4906585039886591</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="8">
         <f t="shared" si="1"/>
         <v>-0.93969262078590843</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>210</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <f t="shared" si="0"/>
         <v>3.6651914291880923</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <f t="shared" si="1"/>
         <v>-0.8660254037844386</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>220</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <f t="shared" si="0"/>
         <v>3.839724354387525</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <f t="shared" si="1"/>
         <v>-0.76604444311897801</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>230</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <f t="shared" si="0"/>
         <v>4.0142572795869578</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <f t="shared" si="1"/>
         <v>-0.64278760968653947</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>240</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <f t="shared" si="0"/>
         <v>4.1887902047863905</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <f t="shared" si="1"/>
         <v>-0.50000000000000044</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>250</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <f t="shared" si="0"/>
         <v>4.3633231299858242</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <f t="shared" si="1"/>
         <v>-0.34202014332566855</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>260</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <f t="shared" si="0"/>
         <v>4.5378560551852569</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <f t="shared" si="1"/>
         <v>-0.17364817766693033</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>270</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <f t="shared" si="0"/>
         <v>4.7123889803846897</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="8">
         <f t="shared" si="1"/>
         <v>-1.83772268236293E-16</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>280</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <f t="shared" si="0"/>
         <v>4.8869219055841224</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="8">
         <f t="shared" si="1"/>
         <v>0.17364817766692997</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>290</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <f t="shared" ref="B67:B74" si="2">RADIANS(A67)</f>
         <v>5.0614548307835561</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <f t="shared" ref="C67:C74" si="3">COS(B67)</f>
         <v>0.34202014332566899</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>300</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <f t="shared" si="2"/>
         <v>5.2359877559829888</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <f t="shared" si="3"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>310</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <f t="shared" si="2"/>
         <v>5.4105206811824216</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="8">
         <f t="shared" si="3"/>
         <v>0.64278760968653925</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>320</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <f t="shared" si="2"/>
         <v>5.5850536063818543</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="8">
         <f t="shared" si="3"/>
         <v>0.76604444311897779</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>330</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <f t="shared" si="2"/>
         <v>5.7595865315812871</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <f t="shared" si="3"/>
         <v>0.86602540378443837</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>340</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <f t="shared" si="2"/>
         <v>5.9341194567807207</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <f t="shared" si="3"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>350</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <f t="shared" si="2"/>
         <v>6.1086523819801535</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="8">
         <f t="shared" si="3"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>360</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <f t="shared" si="2"/>
         <v>6.2831853071795862</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7986,7 +7976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -7996,1256 +7986,1256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>-360</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <f>RADIANS(A2)</f>
         <v>-6.2831853071795862</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <f>SIN(B2)</f>
         <v>2.45029690981724E-16</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <f>COS(B2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>-350</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <f t="shared" ref="B3:B66" si="0">RADIANS(A3)</f>
         <v>-6.1086523819801535</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <f t="shared" ref="C3:C66" si="1">SIN(B3)</f>
         <v>0.17364817766693039</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <f t="shared" ref="D3:D66" si="2">COS(B3)</f>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>-340</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <f t="shared" si="0"/>
         <v>-5.9341194567807207</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <f t="shared" si="1"/>
         <v>0.3420201433256686</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <f t="shared" si="2"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>-330</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <f t="shared" si="0"/>
         <v>-5.7595865315812871</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <f t="shared" si="1"/>
         <v>0.50000000000000044</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <f t="shared" si="2"/>
         <v>0.86602540378443837</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>-320</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>-5.5850536063818543</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <f t="shared" si="1"/>
         <v>0.64278760968653958</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <f t="shared" si="2"/>
         <v>0.76604444311897779</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>-310</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>-5.4105206811824216</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <f t="shared" si="1"/>
         <v>0.76604444311897812</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <f t="shared" si="2"/>
         <v>0.64278760968653925</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>-300</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>-5.2359877559829888</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <f t="shared" si="2"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>-290</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>-5.0614548307835561</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <f t="shared" si="1"/>
         <v>0.93969262078590832</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <f t="shared" si="2"/>
         <v>0.34202014332566899</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>-280</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>-4.8869219055841224</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>0.98480775301220813</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <f t="shared" si="2"/>
         <v>0.17364817766692997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>-270</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>-4.7123889803846897</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <f t="shared" si="2"/>
         <v>-1.83772268236293E-16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>-260</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>-4.5378560551852569</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <f t="shared" si="2"/>
         <v>-0.17364817766693033</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>-250</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>-4.3633231299858242</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="11">
         <f t="shared" si="1"/>
         <v>0.93969262078590843</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <f t="shared" si="2"/>
         <v>-0.34202014332566855</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>-240</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>-4.1887902047863905</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <f t="shared" si="1"/>
         <v>0.86602540378443837</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <f t="shared" si="2"/>
         <v>-0.50000000000000044</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>-230</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>-4.0142572795869578</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="11">
         <f t="shared" si="1"/>
         <v>0.7660444431189779</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <f t="shared" si="2"/>
         <v>-0.64278760968653947</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>-220</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>-3.839724354387525</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="11">
         <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="12">
         <f t="shared" si="2"/>
         <v>-0.76604444311897801</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>-210</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>-3.6651914291880923</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="11">
         <f t="shared" si="1"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <f t="shared" si="2"/>
         <v>-0.8660254037844386</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>-200</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>-3.4906585039886591</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="11">
         <f t="shared" si="1"/>
         <v>0.34202014332566866</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="12">
         <f t="shared" si="2"/>
         <v>-0.93969262078590843</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>-190</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>-3.3161255787892263</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="11">
         <f t="shared" si="1"/>
         <v>0.17364817766693047</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <f t="shared" si="2"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>-180</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>-3.1415926535897931</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="11">
         <f t="shared" si="1"/>
         <v>-1.22514845490862E-16</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="12">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>-170</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <f t="shared" si="0"/>
         <v>-2.9670597283903604</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="11">
         <f t="shared" si="1"/>
         <v>-0.17364817766693028</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <f t="shared" si="2"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>-160</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <f t="shared" si="0"/>
         <v>-2.7925268031909272</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="11">
         <f t="shared" si="1"/>
         <v>-0.34202014332566888</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="12">
         <f t="shared" si="2"/>
         <v>-0.93969262078590832</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <v>-150</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <f t="shared" si="0"/>
         <v>-2.6179938779914944</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="11">
         <f t="shared" si="1"/>
         <v>-0.49999999999999994</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="12">
         <f t="shared" si="2"/>
         <v>-0.86602540378443871</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <v>-140</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>-2.4434609527920612</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="11">
         <f t="shared" si="1"/>
         <v>-0.64278760968653947</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="12">
         <f t="shared" si="2"/>
         <v>-0.7660444431189779</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>-130</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>-2.2689280275926285</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="11">
         <f t="shared" si="1"/>
         <v>-0.76604444311897801</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <f t="shared" si="2"/>
         <v>-0.64278760968653936</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>-120</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>-2.0943951023931953</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="11">
         <f t="shared" si="1"/>
         <v>-0.86602540378443871</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <f t="shared" si="2"/>
         <v>-0.49999999999999978</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>-110</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>-1.9198621771937625</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="11">
         <f t="shared" si="1"/>
         <v>-0.93969262078590843</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <f t="shared" si="2"/>
         <v>-0.34202014332566871</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>-100</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>-1.7453292519943295</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="11">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <f t="shared" si="2"/>
         <v>-0.1736481776669303</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>-90</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="11">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <f t="shared" si="2"/>
         <v>6.1257422745431001E-17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>-80</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <f t="shared" si="0"/>
         <v>-1.3962634015954636</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="11">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <f t="shared" si="2"/>
         <v>0.17364817766693041</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>-70</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <f t="shared" si="0"/>
         <v>-1.2217304763960306</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="11">
         <f t="shared" si="1"/>
         <v>-0.93969262078590832</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <f t="shared" si="2"/>
         <v>0.34202014332566882</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>-60</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="10">
         <f t="shared" si="0"/>
         <v>-1.0471975511965976</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="11">
         <f t="shared" si="1"/>
         <v>-0.8660254037844386</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <f t="shared" si="2"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>-50</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="10">
         <f t="shared" si="0"/>
         <v>-0.87266462599716477</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="11">
         <f t="shared" si="1"/>
         <v>-0.76604444311897801</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <f t="shared" si="2"/>
         <v>0.64278760968653936</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="9">
         <v>-40</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>-0.69813170079773179</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="11">
         <f t="shared" si="1"/>
         <v>-0.64278760968653925</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="12">
         <f t="shared" si="2"/>
         <v>0.76604444311897801</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <v>-30</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <f t="shared" si="0"/>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="11">
         <f t="shared" si="1"/>
         <v>-0.49999999999999994</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <f t="shared" si="2"/>
         <v>0.86602540378443871</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="9">
         <v>-20</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <f t="shared" si="0"/>
         <v>-0.3490658503988659</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="11">
         <f t="shared" si="1"/>
         <v>-0.34202014332566871</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <f t="shared" si="2"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="9">
         <v>-10</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="10">
         <f t="shared" si="0"/>
         <v>-0.17453292519943295</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="11">
         <f t="shared" si="1"/>
         <v>-0.17364817766693033</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="12">
         <f t="shared" si="2"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="9">
         <v>0</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="9">
         <v>10</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>0.17453292519943295</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="11">
         <f t="shared" si="1"/>
         <v>0.17364817766693033</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <f t="shared" si="2"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="9">
         <v>20</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="11">
         <f t="shared" si="1"/>
         <v>0.34202014332566871</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="12">
         <f t="shared" si="2"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="9">
         <v>30</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="10">
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="11">
         <f t="shared" si="1"/>
         <v>0.49999999999999994</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="12">
         <f t="shared" si="2"/>
         <v>0.86602540378443871</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="9">
         <v>40</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="10">
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="11">
         <f t="shared" si="1"/>
         <v>0.64278760968653925</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="12">
         <f t="shared" si="2"/>
         <v>0.76604444311897801</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="9">
         <v>50</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="10">
         <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="11">
         <f t="shared" si="1"/>
         <v>0.76604444311897801</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="12">
         <f t="shared" si="2"/>
         <v>0.64278760968653936</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="9">
         <v>60</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="10">
         <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="11">
         <f t="shared" si="1"/>
         <v>0.8660254037844386</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="12">
         <f t="shared" si="2"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="9">
         <v>70</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="10">
         <f t="shared" si="0"/>
         <v>1.2217304763960306</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="11">
         <f t="shared" si="1"/>
         <v>0.93969262078590832</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="12">
         <f t="shared" si="2"/>
         <v>0.34202014332566882</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="9">
         <v>80</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="10">
         <f t="shared" si="0"/>
         <v>1.3962634015954636</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="11">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="12">
         <f t="shared" si="2"/>
         <v>0.17364817766693041</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <v>90</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="10">
         <f t="shared" si="0"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="12">
         <f t="shared" si="2"/>
         <v>6.1257422745431001E-17</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="9">
         <v>100</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <f t="shared" si="0"/>
         <v>1.7453292519943295</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="11">
         <f t="shared" si="1"/>
         <v>0.98480775301220802</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="12">
         <f t="shared" si="2"/>
         <v>-0.1736481776669303</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="9">
         <v>110</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="10">
         <f t="shared" si="0"/>
         <v>1.9198621771937625</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="11">
         <f t="shared" si="1"/>
         <v>0.93969262078590843</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="12">
         <f t="shared" si="2"/>
         <v>-0.34202014332566871</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="9">
         <v>120</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="10">
         <f t="shared" si="0"/>
         <v>2.0943951023931953</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="11">
         <f t="shared" si="1"/>
         <v>0.86602540378443871</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="12">
         <f t="shared" si="2"/>
         <v>-0.49999999999999978</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="9">
         <v>130</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="10">
         <f t="shared" si="0"/>
         <v>2.2689280275926285</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="11">
         <f t="shared" si="1"/>
         <v>0.76604444311897801</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="12">
         <f t="shared" si="2"/>
         <v>-0.64278760968653936</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="9">
         <v>140</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <f t="shared" si="0"/>
         <v>2.4434609527920612</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="11">
         <f t="shared" si="1"/>
         <v>0.64278760968653947</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="12">
         <f t="shared" si="2"/>
         <v>-0.7660444431189779</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="9">
         <v>150</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="10">
         <f t="shared" si="0"/>
         <v>2.6179938779914944</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="11">
         <f t="shared" si="1"/>
         <v>0.49999999999999994</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="12">
         <f t="shared" si="2"/>
         <v>-0.86602540378443871</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="9">
         <v>160</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="10">
         <f t="shared" si="0"/>
         <v>2.7925268031909272</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="11">
         <f t="shared" si="1"/>
         <v>0.34202014332566888</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="12">
         <f t="shared" si="2"/>
         <v>-0.93969262078590832</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="9">
         <v>170</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="10">
         <f t="shared" si="0"/>
         <v>2.9670597283903604</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="11">
         <f t="shared" si="1"/>
         <v>0.17364817766693028</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="12">
         <f t="shared" si="2"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="9">
         <v>180</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="10">
         <f t="shared" si="0"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="11">
         <f t="shared" si="1"/>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="12">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="9">
         <v>190</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="10">
         <f t="shared" si="0"/>
         <v>3.3161255787892263</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="11">
         <f t="shared" si="1"/>
         <v>-0.17364817766693047</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="12">
         <f t="shared" si="2"/>
         <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="9">
         <v>200</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="10">
         <f t="shared" si="0"/>
         <v>3.4906585039886591</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="11">
         <f t="shared" si="1"/>
         <v>-0.34202014332566866</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="12">
         <f t="shared" si="2"/>
         <v>-0.93969262078590843</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="9">
         <v>210</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="10">
         <f t="shared" si="0"/>
         <v>3.6651914291880923</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="11">
         <f t="shared" si="1"/>
         <v>-0.50000000000000011</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="12">
         <f t="shared" si="2"/>
         <v>-0.8660254037844386</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="A60" s="9">
         <v>220</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="10">
         <f t="shared" si="0"/>
         <v>3.839724354387525</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="11">
         <f t="shared" si="1"/>
         <v>-0.64278760968653925</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="12">
         <f t="shared" si="2"/>
         <v>-0.76604444311897801</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="9">
         <v>230</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="10">
         <f t="shared" si="0"/>
         <v>4.0142572795869578</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="11">
         <f t="shared" si="1"/>
         <v>-0.7660444431189779</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="12">
         <f t="shared" si="2"/>
         <v>-0.64278760968653947</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="A62" s="9">
         <v>240</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="10">
         <f t="shared" si="0"/>
         <v>4.1887902047863905</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="11">
         <f t="shared" si="1"/>
         <v>-0.86602540378443837</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="12">
         <f t="shared" si="2"/>
         <v>-0.50000000000000044</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="9">
         <v>250</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="10">
         <f t="shared" si="0"/>
         <v>4.3633231299858242</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="11">
         <f t="shared" si="1"/>
         <v>-0.93969262078590843</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="12">
         <f t="shared" si="2"/>
         <v>-0.34202014332566855</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="9">
         <v>260</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="10">
         <f t="shared" si="0"/>
         <v>4.5378560551852569</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="11">
         <f t="shared" si="1"/>
         <v>-0.98480775301220802</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="12">
         <f t="shared" si="2"/>
         <v>-0.17364817766693033</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="9">
         <v>270</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="10">
         <f t="shared" si="0"/>
         <v>4.7123889803846897</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="11">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="12">
         <f t="shared" si="2"/>
         <v>-1.83772268236293E-16</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="9">
         <v>280</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="10">
         <f t="shared" si="0"/>
         <v>4.8869219055841224</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="11">
         <f t="shared" si="1"/>
         <v>-0.98480775301220813</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="12">
         <f t="shared" si="2"/>
         <v>0.17364817766692997</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="9">
         <v>290</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="10">
         <f t="shared" ref="B67:B74" si="3">RADIANS(A67)</f>
         <v>5.0614548307835561</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="11">
         <f t="shared" ref="C67:C74" si="4">SIN(B67)</f>
         <v>-0.93969262078590832</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="12">
         <f t="shared" ref="D67:D74" si="5">COS(B67)</f>
         <v>0.34202014332566899</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="9">
         <v>300</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="10">
         <f t="shared" si="3"/>
         <v>5.2359877559829888</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="11">
         <f t="shared" si="4"/>
         <v>-0.8660254037844386</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="12">
         <f t="shared" si="5"/>
         <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="9">
         <v>310</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="10">
         <f t="shared" si="3"/>
         <v>5.4105206811824216</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="11">
         <f t="shared" si="4"/>
         <v>-0.76604444311897812</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="12">
         <f t="shared" si="5"/>
         <v>0.64278760968653925</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="A70" s="9">
         <v>320</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="10">
         <f t="shared" si="3"/>
         <v>5.5850536063818543</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="11">
         <f t="shared" si="4"/>
         <v>-0.64278760968653958</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="12">
         <f t="shared" si="5"/>
         <v>0.76604444311897779</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="9">
         <v>330</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="10">
         <f t="shared" si="3"/>
         <v>5.7595865315812871</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="11">
         <f t="shared" si="4"/>
         <v>-0.50000000000000044</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="12">
         <f t="shared" si="5"/>
         <v>0.86602540378443837</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+      <c r="A72" s="9">
         <v>340</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="10">
         <f t="shared" si="3"/>
         <v>5.9341194567807207</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="11">
         <f t="shared" si="4"/>
         <v>-0.3420201433256686</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="12">
         <f t="shared" si="5"/>
         <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="A73" s="9">
         <v>350</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="10">
         <f t="shared" si="3"/>
         <v>6.1086523819801535</v>
       </c>
-      <c r="C73" s="10">
+      <c r="C73" s="11">
         <f t="shared" si="4"/>
         <v>-0.17364817766693039</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="12">
         <f t="shared" si="5"/>
         <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="A74" s="9">
         <v>360</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="10">
         <f t="shared" si="3"/>
         <v>6.2831853071795862</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="11">
         <f t="shared" si="4"/>
         <v>-2.45029690981724E-16</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
